--- a/deuChatbot/research_result/results/rouge_score/rouge_version_2(2000_0).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_2(2000_0).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10493,105 +10493,4134 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 포함되며, 각 분야에서 선택할 수 있는 실기종목이 있습니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **실기종목 및 배점**:
+   - **기초디자인**: 700점 (70%)
+   - **사고의 전환**: 700점 (70%)
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제 및 화지크기**:
+   - **기초디자인**: 
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+     - 화지크기: 켄트지3절
+     - 시간: 5시간
+   - **사고의 전환**: 
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+     - 화지크기: 켄트지2절
+     - 시간: 5시간
+4. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현하세요.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 실기시험을 준비하면서, 주제와 관련된 다양한 아이디어를 발전시키고, 표현력과 창의력을 키우는 것이 중요합니다. 또한 시간 관리도 철저히 해야 합니다.</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0.4233367130303648</v>
+        <v>0.6531881804043546</v>
       </c>
       <c r="E302" t="n">
-        <v>0.2865977441395636</v>
+        <v>0.4555382215288612</v>
       </c>
       <c r="F302" t="n">
-        <v>0.3679100880372166</v>
+        <v>0.4385692068429238</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Meta Llama-3.1-Instruct Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인이 있으며, 각각 다음과 같은 세부 정보가 있습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+     - 예시: 잠자리와 저울
+       - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+       - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이 정보를 바탕으로 준비하면 좋을 것 같습니다.</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.1517385964667472</v>
+        <v>0.5354691075514874</v>
       </c>
       <c r="E303" t="n">
-        <v>0.07802642637775319</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="F303" t="n">
-        <v>0.1400572232764468</v>
+        <v>0.4576659038901602</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+2. 축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생부교과, 출결 등 다른 요소들과 함께 평가됩니다.</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0.3305362191302689</v>
+        <v>0.9087378640776699</v>
       </c>
       <c r="E304" t="n">
-        <v>0.1713965764558166</v>
+        <v>0.8771929824561404</v>
       </c>
       <c r="F304" t="n">
-        <v>0.2688855970733766</v>
+        <v>0.9009708737864077</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+두 가지 주제 중에서 각각 1개씩 선택하여 연결된 주제를 작성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.654320987654321</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.7560975609756098</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 모든 전형 요소 중 학생부 교과의 비율은 100%이며, 출결은 0%로 표시되어 있습니다.
+따라서, 출결 점수는 학생부교과 전형에서 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.3125000000000001</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.303030303030303</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.8780487804878049</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 영어영문학과 - 교직이며, 모집인원은 28이다."</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.1647058823529411</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 139점
+- 등급 2: 131점
+- 등급 3: 123점
+- 등급 4: 115점
+- 등급 5: 107점
+- 등급 6: 99점
+- 등급 7: 91점
+- 등급 8: 83점
+- 등급 9: 75점
+이 정보는 제공된 문맥에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0.6951219512195121</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.5802469135802468</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.6951219512195121</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+상세내용:
+- 고교유형별 지원자격에서 모집군은 나군이며, 전형명은 학생부교과(농어촌학생전형)입니다.
+- 이 전형의 지원 자격 중에는 특수목적고의 예술고도 포함되어 있습니다.
+따라서 예술고 학생이 농어촌 지역의 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주했다면 해당 전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0.4142011834319527</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.2634730538922156</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.3550295857988165</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결이 전형요소 반영비율에 포함되며, 비율은 12%입니다.
+상세 내용은 다음과 같습니다:
+- 전형 유형: 실기/실적 위주
+- 전형명: 나군 실기/실적(일반학생전형)
+- 모집 인원: 7명
+- 수능 반영 비율: 0%
+- 학생부 교과 반영 비율: 18%
+- 출결 반영 비율: 12%
+- 서류 반영 비율: 70%
+- 면접 반영 비율: 0%
+- 실기 반영 비율: 0%
+따라서, 경기지도학과의 경우 출결이 전형 절차에서 12%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0.1594202898550725</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.1323529411764706</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원이 40명입니다.</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0.7272727272727272</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.606060606060606</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+추가 정보:
+- 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+- 실기종목: 기초디자인, 사고의 전환 중 선택 1개
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 화지크기: 시각디자인/산업디자인은 켄트지3절, 공예디자인은 켄트지2절
+- 시간: 5시간
+상세 일정과 준비사항은 입학 안내 홈페이지를 참조하시거나 https://ipsi.deu.ac.kr/main.do로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0.07633587786259542</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.01550387596899225</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.06106870229007634</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体最低录取标准（수능 최저기준）。根据给出的信息，大多数专业显示“수능최저기준 없음”（即没有指定的最低录取标准），但确切的最低录取要求可能需要查看学校官方发布的招生简章或直接访问其官方网站获取最准确信息。
+建议您访问东义大学的官方网站 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查找2024学年应用化学专业的具体最低录取标准和其他详细信息。</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.07692307692307691</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설): 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+5. 경기지도학과 (신설)
+위와 같이 2024학년도에 동의대학교에서는 총 5개의 신설 학과/학부가 추가되었습니다.</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0.7532467532467533</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.6447368421052632</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.5063291139240506</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학과 ICT융합공과대학의 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+이 정보는 "수능 전형성적 산출방법" 섹션에서 확인할 수 있습니다:
+- 수능 전형성적 산출방법에서 전형명은 다군(일반학생전형)이며, 모집단위은 공과대학, ICT융합공과대학 모집단위이며, 수능 전형성적 산출방법은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)이다.
+따라서, 공과대학과 ICT융합공과대학의 모집단위에서 수능 수학(미적분 또는 기하) 응시자에게 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.2561576354679803</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.3024390243902439</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+1. **반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체): 25%
+   - 수학(확률과통계 또는 미적분 또는 기하): 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합): 25%
+2. **산출 방법**:
+   - 국어 표준점수
+   - 수학 표준점수
+   - 영어 등급점수
+   - 탐구 표준점수
+이러한 점수들을 더하여 최종 성적을 산출합니다.
+참고로, 이는 인문사회과학대학과 상경대학 모집단위에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0.2366863905325444</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.08383233532934131</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.1656804733727811</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.
+참조 정보:
+- 전형일정에서 내용은 "&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과"이며,
+- 일정은 "2024. 01. 16.(화)"로 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0.3370786516853932</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.2528735632183908</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.3146067415730337</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 제외됩니다. 
+이 점을 확인할 수 있는 문장은 다음과 같습니다:
+"나군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율에서 전형명은 나군 수능(일반학생전형)이며, 모집단위은 전 모집단위(디자인조형학과 체육학과 제외)이며, 전형요소 반영비율의 수능은 100%이며, 전형요소 반영비율의 실기은 -이다."</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0.3857142857142857</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 위주 전형인 경우 수능 최저기준은 없습니다. 이는 전형요소 반영비율에서 확인할 수 있습니다:
+전형유형: 수능 위주  
+전형명: 다군 수능(일반학생전형) 전 모집단위  
+모집 인원: 180  
+사정 단계: 일괄 합산  
+전형요소 반영비율(%)의 수능: 100  
+수능최저기준: 수능최저기준 없음  
+따라서, 다군 전형에서 수능 위주로 평가하는 경우 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.2123893805309734</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>0.7887788778877888</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.7251655629139074</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.7392739273927392</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토)까지이며, 접수 마감 시간은 18시까지입니다.
+따라서 원서접수는 2024년 1월 3일부터 2024년 1월 6일까지 가능하며, 특히 마지막 날인 1월 6일에는 오후 6시까지 접수가 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0.4470588235294118</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.3294117647058823</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**:
+   - **변화 내용**: 
+     - 평가영역이 "공동체역량"으로 변경되었습니다.
+     - 서류평가 영역별 세부 평가 기준에서 평가요소로 협업능력이 추가되었습니다.
+2. **학생부종합(성인학습자(정원내·외)전형)**:
+   - **변화 내용**: 
+     - 평가영역이 "공동체역량"으로 변경되었습니다.
+     - 서류평가 영역별 세부 평가 기준에서 평가요소로 협업능력이 추가되었습니다.
+3. **학생부종합(재직자전형)**:
+   - **변화 내용**: 
+     - 평가영역이 "공동체역량"으로 변경되었습니다.
+     - 서류평가 영역별 세부 평가 기준에서 평가요소로 협업능력이 추가되었습니다.
+4. **학생부교과(농어촌학생전형) - 정원외**:
+   - **변화 내용**: 
+     - 6년 과정과 12년 과정의 제출서류에 고교 졸업증명서가 추가되었습니다.
+     - 동점자 처리 기준이 변경되어, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자가 우선적으로 선발됩니다.
+5. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - **변화 내용**: 
+     - 전형요소 반영비율이 변경되었습니다.
+     - 서류 평가 비율이 70%로, 면접 평가 비율이 30%로 조정되었습니다.
+위와 같은 변화들이 주요 전형에서 이루어졌습니다. 이러한 변화는 학생들의 다양한 능력과 경험을 종합적으로 평가하기 위한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0.2883939038686987</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.1339600470035253</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.201641266119578</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 실기가 수능에 비해 큰 비중을 차지합니다. 
+특히, 레저스포츠학과와 태권도학과를 제외한 전 모집단위에서 수능은 100% 반영되지만, 실기는 반영되지 않는 것으로 보입니다.
+레저스포츠학과와 태권도학과의 경우, 실기가 다음과 같이 반영됩니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서, 레저스포츠학과와 태권도학과의 경우 실기는 총 평가에서 82% (18% + 70%)의 비중을 차지합니다.
+요약하면:
+- 레저스포츠학과 및 태권도학과: 실기 82%, 수능 18%
+- 기타 전 모집단위: 실기 0%, 수능 100%</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>0.1796407185628742</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.0606060606060606</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.155688622754491</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추고 있으며, 다양한 산업과 생활 문화와의 접목을 통해 새로운 가치를 창출하는 전문가 양성을 목표로 설립되었습니다. 세부 전공별로 특화된 교육 프로그램이 제공될 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0.4838709677419356</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.4516129032258064</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 외에는 일반 수능 기반으로만 모집되는 학과들이 대부분입니다.</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0.5476190476190476</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.4146341463414634</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 다음과 같은 학과에 적용됩니다:
+- 레저스포츠학과
+- 태권도학과
+이 두 학과는 2024학년도에 실기/실적 위주 전형을 통해 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0.4038461538461538</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 신설 전공들을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.5581395348837209</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고는 다음과 같이 지원이 가능합니다:
+- **모집군**: 가군, 나군, 다군
+- **전형명**:
+  - 수능 (일반학생전형)
+  - 실기/실적 (일반학생전형)
+특수목적고등학교 중 예술고와 체육고는 다음과 같이 지원이 제한됩니다:
+- **모집군**: 가군, 나군
+- **전형명**:
+  - 수능 (일반학생전형)
+  - 실기/실적 (일반학생전형)
+따라서, 특수목적고등학교 학생이라면 일반고나 자율고 등과 마찬가지로 동의대학교의 일반학생전형에 지원이 가능합니다. 다만 예술고와 체육고는 실기/실적 위주 전형에서는 지원이 제한될 수 있으므로, 지원할 때 해당 점을 참고하시기 바랍니다.
+더 궁금하신 사항이나 추가 정보가 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0.2672064777327935</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.1306122448979592</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.2024291497975708</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 각 학과의 정원을 비교해보겠습니다.
+1. 상경대학 행정학과: 45명
+2. 상경대학 사회복지학과: 60명
+3. 상경대학 금융경영학과: 50명
+4. 상경대학 재무부동산학과: 45명
+5. 상경대학 무역학과 - 교직: 55명
+6. 상경대학 유통물류학과: 46명
+7. 상경대학 스마트항만물류학과 - 신설: 30명
+8. 상경대학 창업투자경영학과 - 신설: 30명
+9. 상경대학 경영학과 - 교직: 90명
+10. 상경대학 회계학과 - 교직: 60명
+11. 상경대학 경영정보학과: 40명
+12. 상경대학 e비즈니스학과: 30명
+13. 상경대학 국제관광경영학과 - 교직: 60명
+14. 상경대학 호텔·컨벤션경영학과 - 교직: 60명
+이 중에서 가장 많은 정원을 가진 학과는 **상경대학 경영학과 - 교직**로, 90명을 모집합니다.
+따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **경영학과 - 교직**입니다.</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0.1726618705035971</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.1366906474820144</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>你是韩国人吗？根据提供的信息，如果你是特殊目的高中（如科学高中、国际高中或外语高中）的学生，并且符合以下条件之一，则可以申请东义大学的学士学位课程（学生部学科）：
+1. **6年制过程**：
+   - 在农村（乡镇）地区的初中和高中期间，你本人及父母均在该地区居住。
+   - 提交材料包括：你的家庭关系证明书、你的个人及父母的户籍誊本各一份（共3份）、初中的学生手册、高中的学生手册。
+2. **12年制过程**：
+   - 无论父母是否在农村地区居住，你本人在农村地区的初中和高中期间就读并居住。
+   - 提交材料包括：你的个人户籍誊本、小学的学生手册、初中的学生手册、高中的学生手册（如果学生手册无法在线提供或未同意，则需要提交）。
+因此，如果你是特殊目的高中（如科学高中、国际高中或外语高中），并且符合上述条件之一，那么你可以申请东义大学的学士学位课程（学生部学科）的学生部学科。建议你仔细检查自己的情况是否满足这些条件，并按照要求准备相应的材料进行申请。如果还有疑问，可以访问“https://ipsi.deu.ac.kr/main.do”获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 경우, 다음과 같은 평균 성적이 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 영어 등급의 평균: 3.30
+- 수능 4개 영역 등급의 평균: 4.12
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+이러한 정보는 최초합격자 데이터에서 얻어진 것입니다. 최종등록자의 경우 다른 값을 보일 수 있으므로, 정확한 최종등록자 평균 성적은 공식 발표를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0.1910828025477707</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.09032258064516129</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.178343949044586</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가적으로, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0.2315789473684211</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.1075268817204301</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정에 따르면, 각 전형별로 다음과 같은 시기에 합격자 발표가 이루어집니다:
+1. **&lt;가&gt;군 및 &lt;나&gt;군 실기고사**:
+   - **일시**: 2024년 1월 16일 (화)와 17일 (수)
+   - **내용**: 각각 레저스포츠학과 태권도학과, 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사
+2. **최초 합격자 발표**:
+   - **일시**: 2024년 2월 2일 (금)
+   - **전형**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군
+   - **내용**: 이날 합격자들이 최초로 발표되며, 등록금 납부 등의 절차를 진행하게 됩니다.
+3. **충원 합격자 발표 및 등록**:
+   - **일시**: 2024년 2월 14일 (수) 9:00부터
+   - **내용**: 이날부터 2차, 3차로 충원 합격자를 발표하고 등록을 진행합니다.
+이러한 일정은 각 전형별로 동일하게 적용되며, 합격자 발표 후에는 등록금 납부 등의 추가 절차가 필요합니다. 자세한 내용은 입학안내 홈페이지를 참고하시거나 공식 사이트 (https://ipsi.deu.ac.kr/main.do)에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>0.3292682926829268</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.1533742331288343</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.2317073170731707</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 면접일정에 대한 구체적인 날짜와 시간은 확인할 수 없습니다. 일반적으로 면접 일정은 입학사정관의 판단에 따라 결정되며, 관련 공지사항이나 개별 통보를 통해 안내됩니다.
+만약 면접 일정을 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. **학교 홈페이지 확인**: DEU(디지털 엔터프라이즈 대학)의 공식 웹사이트에서 최신 정보를 확인해 보세요.
+2. **입학처 문의**: 직접 입학처에 연락하여 면접 일정과 관련된 자세한 정보를 요청하세요.
+3. **공지사항 확인**: 학교나 입학처가 운영하는 SNS, 이메일 등 다양한 채널을 통해 공지 사항을 확인해 보세요.
+만약 추가적인 도움이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 찾아보시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보가 제공되지 않았습니다. 일반적으로 대학별로 특정 학력 기준이 있을 수 있으며, 이는 각 대학의 입시 홈페이지나 공지사항을 통해 확인할 수 있습니다.
+만약 더 자세한 정보를 원하시면, 해당 대학의 입시 홈페이지 (https://ipsi.deu.ac.kr/main.do) 또는 관련 부서에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.1627906976744186</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 내용에서는 특정 전형별로 수능 최저학력 기준이 명시되어 있지 않습니다. 
+특히 "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 가군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+- 나군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+- 다군 수능(일반학생전형): 수능최저기준 없음
+따라서, 정확한 정보를 얻으시려면 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 3차까지 충원 합격자 발표가 이루어집니다. 각 차례별로 다음과 같이 진행됩니다:
+- 2024. 02. 15.(목) 09:00 - 1차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00~16:00 - 1차 충원 합격자 등록
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00~16:00 - 2차 충원 합격자 등록
+이후, 3차 이후의 충원 합격자는 개별 전화 통보를 통해 발표되며, 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 이루어집니다.
+발표 및 등록에 대한 자세한 내용은 입학 안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0.5130434782608696</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.3508771929824562</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.4260869565217391</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- **1차 추가합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 추가합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 추가합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 추가합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+추가적으로, **3차 이후 추가합격자 발표 및 등록**은 개별 전화 통보를 통해 이루어집니다. 이는 2024. 02. 15.(목) 19:00부터 시작되며, 최종 날짜는 2024. 02. 20.(화) 18시까지입니다.
+이러한 일정은 합격자 발표 및 등록금 납부 단계 중 하나로, 각각의 발표와 등록 시점에 맞춰 개별적으로 통보됩니다.</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0.3116883116883117</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.1746724890829694</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.2770562770562771</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校的招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.02941176470588236</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 이 전형의 주요 특징과 절차는 다음과 같습니다:
+1. **대상**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자입니다.
+2. **평가 영역 및 기준**:
+   - **공동체역량**: 협업능력, 공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력 여부 등.
+   - **학업역량**: 학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업 성취 정도, 학년별 성적 추이 등.
+   - **전공적합성**: 지원 전공(계열) 관련 활동과 경험, 지원 전공(계열) 관련 학업의지, 학교생활의 적극적 참여 등.
+3. **면접평가**:
+   - **면접종류 및 시간**: 개별면접으로 1인당 10분 이내입니다.
+   - **면접방법**: 입학사정관 2인이 평가위원이 되어 수험생을 대상으로 개별적 평가를 실시합니다. 답변 내용을 바탕으로 정성·종합적으로 평가됩니다.
+4. **평가 영역 및 배점**:
+   - **학업역량**: 
+     - 1등급: 180점
+     - 2등급: 166.5점
+     - 3등급: 153점
+     - 4등급: 139.5점
+     - 5등급: 126점
+   - **전공적합성**: 
+     - 1등급: 120점
+     - 2등급: 111점
+     - 3등급: 102점
+     - 4등급: 93점
+     - 5등급: 84점
+5. **동점자 처리기준**:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+6. **제출서류**:
+   - 고교 졸업(예정)자는 고교 학교생활기록부 1부를 제출합니다.
+   - 검정고시 출신자는 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류 중 선택하여 제출합니다.
+   - 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서, 성적증명서, 학교생활기록부 대체 서류를 제출하며, 아포스티유 확인이나 영사확인이 필요할 수 있습니다.
+7. **면접평가의 부정적 사례**:
+   - 창의적 체험활동에 기재된 동아리활동, 진로활동에 대한 세부 내용 확인 시 기억이 나지 않는다고 답변하거나 학교생활기록부에 기재된 내용 그 이상의 경험적 사실을 설명하지 못하는 경우 등이 있습니다.
+이러한 절차와 기준을 참고하여 평생학습자전형을 준비하시면 도움이 될 것입니다. 필요한 추가 정보나 자세한 사항은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0.3814432989690722</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.1446280991735537</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.2041237113402062</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **일반고, 자율고**: 지원 가능합니다.
+2. **특수목적고**:
+   - 과학고, 국제고, 외국어고: 지원 가능합니다.
+   - 예술고, 체육고: 지원 가능합니다.
+   - 마이스터고: 지원 가능합니다.
+3. **특성화고**: 
+   - 특성(직업): 지원 가능합니다.
+   - 특성(대안): 지원 가능합니다.
+4. **영재학교**: 지원 가능합니다.
+5. **기타**:
+   - 학력인정고: 지원 가능합니다.
+   - 방송통신고: 지원 가능합니다.
+   - 각종학교: 지원 가능합니다.
+   - 검정고시: 지원 가능합니다.
+   - 외국고: 지원 가능합니다.
+이러한 자격 조건은 주로 고등학교 유형에 따라 다르게 적용되며, 특정 전형명(예: 학생부종합, 수능 등)과 함께 제시됩니다.</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0.1407035175879397</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.07106598984771573</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.1206030150753769</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 전형에 따라不同的的，给定的句子并没有提供关于实考地点的具体信息。根据您提供的信息，实考（实技考试）涉及多个专业和科目，但具体的考场安排通常会在学校或招生网站上另行通知。
+如果您需要了解某个具体专业的实考地点，请参考以下步骤：
+1. 访问学校的官方网站。
+2. 查找与招生相关的页面。
+3. 找到您申请的专业对应的考试信息。
+4. 仔细阅读该专业考试的具体要求和安排，包括考场信息。
+如果还有疑问或找不到相关信息，建议直接联系学校招生办公室获取详细信息。</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위**: 체육학과입니다.
+2. **실기종목**:
+   - 제자리 멀리뛰기 (배점 비율: 240점 / 24%)
+   - 메디신볼 던지기 (배점 비율: 243점 / 23%)
+   - Z-런 (배점 비율: 230점 / 23%)
+실기고사는 이 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목은 시간이 다르지 않고, 모두 5시간 동안 진행됩니다.
+따라서 체육학과를 지원하는 학생들은 해당 모집단위에 따라 실기고사를 준비해야 하며, 선택한 종목에 따라 준비물을 가져가야 합니다.</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0.1006289308176101</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.01273885350318471</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.07547169811320754</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원합격자 발표 후 3차 이후 (개별 전화 통보)로 발표되는 합격자는 개별 전화 통보를 받게 됩니다. 이전 단계의 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다.
+따라서, 충원합격자 발표 후 3차 이후에 합격 사실을 알기 위해서는 개별 전화 통보를 기다려야 합니다. 홈페이지에서는 해당 정보를 확인할 수 없으므로, 이 점 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0.4968944099378881</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.3105590062111801</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과 정보가 제공된 문서에서 명시되어 있지 않습니다. 제공된 정보는 주로 2024학년도와 관련된 변경사항 및 모집요강에 대한 내용으로, 이전 학년도의 자세한 수시모집 결과는 포함되어 있지 않아 보입니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, 해당 대학의 공식 웹사이트나 입학처에 직접 문의하시는 것이 가장 정확한 방법일 것입니다. 또한 한국대학교육협의회(KAUA) 또는 각 대학의 입학정보시스템을 통해 더 자세한 정보를 얻으실 수 있습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 를 참조하시거나, 직접 대학 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0.3121387283236994</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.1754385964912281</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.2312138728323699</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 일부 전형에서 수능을 응시하지 않은 학생들도 지원이 가능합니다. 특히, 농어촌학생전형과 평생학습자전형(성인학습자, 재직자) 등에서 수능 없이 지원할 수 있는 경우가 있습니다.
+1. **농어촌학생전형**:
+   - **나군 학생부교과(농어촌학생전형)**: 농어촌 지역 소재 중·고등학교를 졸업한 자, 또는 해당 조건을 충족하는 자는 수능 없이 지원 가능합니다.
+   - **나군 학생부종합(농어촌학생전형)**: 같은 경우에 해당합니다.
+2. **평생학습자전형 (성인학습자, 재직자)**:
+   - **나군 학생부종합(성인학습자(정원내·외)전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자는 수능 없이 지원 가능합니다.
+   - **나군 학생부종합(재직자전형)**: 같은 조건을 충족하는 재직자도 수능 없이 지원할 수 있습니다.
+따라서, 특정 전형에서는 수능 응시 여부와 관계없이 지원이 가능한 경우가 있으므로, 해당 전형의 세부 자격요건을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0.09282700421940929</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.02553191489361702</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.0759493670886076</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 지났다면 정시모집의 경우 지원이 어려울 가능성이 높습니다. 대다수의 대학은 고등학교 졸업생을 대상으로 하고 있으며, 성인 학습자 전형이나 평생학습자 전형 등 특정 조건을 충족해야 하는 전형에만 지원이 가능할 수 있습니다.
+특히, 정시모집에서는 주로 고등학교 졸업 예정자 또는 해당 연도의 고교 졸업자를 대상으로 합니다. 따라서 10년 경과한 경우 일반적인 정시모집에서는 지원이 불가능합니다.
+만약 성인 학습자 전형이나 평생학습자 전형에 지원을 고려하고 있다면, 해당 전형의 지원 자격 조건을 확인해야 합니다. 예를 들어:
+- **성인학습자전형**: 재직 경력이 있는 경우 등 특정 조건을 충족하면 지원 가능할 수 있습니다.
+- **평생학습자전형**: 농어촌 지역 거주자 또는 특별한 사회적 배경을 갖춘 학습자가 지원 자격을 얻을 수 있습니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다. 해당 사이트에서 각 전형별 지원 자격과 절차 등을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0.2120141342756184</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.0711743772241993</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.1413427561837456</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학 안내 홈페이지에서 공고
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각각의 전형별로 다를 수 있습니다.
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 각각의 전형별로 다를 수 있습니다.
+   - 서류 제출 대상: (Ⅳ. 전형별 세부 안내 참조)
+   - 제출 방법: 접수 사이트에서 우편 발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내
+     - 발표 및 고지서 교부 내용은 위와 동일
+   - 충원 합격자 발표 및 등록: 
+     - 1차 (인터넷): 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 2차 (인터넷): 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+이 일정은 일반적으로 동의대학교 정시 모집에 대한 기본적인 일정입니다. 각 전형별 세부 사항이나 변경사항은 입학 안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0.5624509033778476</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.4248623131392604</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송 (서류 제출대상은 IV. 전형별 세부 안내 참조)
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: *발표: 홈페이지에서 개별 조회*  
+           *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+           *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00 ~ 16:00
+       - 비고: 동일
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00 ~ 16:00
+       - 비고: 동일
+   - 3차 이후 (개별 전화 통보):
+     - 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - 비고: 동일
+     - 등록: 개별 전화 통보 시 안내
+이 일정은 일반적으로 정시모집의 주요 단계를 포함하며, 각 단계마다 중요한 정보와 마감 시간을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0.5981873111782477</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.3874873864783047</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.499496475327291</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(성인학습자(정원외)전형)** - 이 전형은 수능 점수를 요구하지 않으며, 학생부 교과 성적과 서류 평가 등을 통해 선발합니다.
+2. **학생부교과(농어촌학생전형)** - 이 전형도 수능 점수를 요구하지 않고, 주로 학생부 교과 성적을 기반으로 선발합니다.
+이 외의 대부분의 전형은 수능 점수가 필수적으로 반영되므로, 수능 미응시자는 해당 전형에 지원하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.2754491017964071</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.09696969696969697</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.1916167664670659</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로 전년도, 즉 2023학년도의 전자공학과 관련 정보는 직접 제공되지 않았습니다. 하지만 주어진 2024학년도의 데이터에서 전자공학과의 경우 다음과 같은 정보가 있습니다:
+- 모집 인원: 69명
+- 지원 인원: 105명
+- 경쟁률: 1.52
+- 충원 합격 (후보순위): 36명
+이 정보만으로는 전년도의 데이터를 추론하기 어렵습니다. 만약 전년도의 전자공학과 관련된 자료가 필요하다면, 제공된 링크인 "https://ipsi.deu.ac.kr/main.do"를 통해 확인해 보시거나, 해당 대학 입학처에 직접 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0.2804878048780488</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.1707317073170732</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要这个信息，建议您访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do），通常学校官网会有联系方式页面，上面会列出各个部门的联系电话和邮箱等信息。
+如果网站上没有提供具体的电话号码，您可以尝试通过以下方式联系入学处：
+1. 访问学校的官方网站。
+2. 在搜索框中输入“入学处 电话”或类似的关键词。
+3. 如果找不到相关信息，可以尝试直接在网站底部找到联系方式页面。
+4. 如果还是无法找到，可以直接拨打学校总机电话询问具体部门的联系电话。
+希望这些建议对您有所帮助！如果需要进一步的帮助，请告诉我。</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원 합격자에 대한 개별 전화 통보에서 전화 통화가 되지 않는 경우, 일반적으로 다음과 같은 절차가 따르게 됩니다:
+1. **재전화 시도**: 초기에는 일정 시간 동안 재전화를 시도합니다.
+2. **메시지 남기기**: 전화가 되지 않을 때는 메시지를 남깁니다.
+3. **추가 통보 방법**: 메일이나 문자 메시지 등을 통해 추가로 합격 정보를 통보합니다.
+하지만 정확한 처리 절차와 기간은 해당 대학의 입학처 웹사이트나 안내문을 확인해야 합니다. 따라서, "https://ipsi.deu.ac.kr/main.do" 링크를 참고하여 최신 안내사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.08910891089108912</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **6년 과정 유형**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+     - 부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)
+     - 부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+2. **12년 과정 유형**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부 
+   - 중학교 학교생활기록부 1부 
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+3. **최종 등록자 추가 제출서류**
+   - 6년 과정 유형: 고교 졸업증명서, 지원자 본인, 부모 초본 각 1부 (총 3부)
+   - 12년 과정 유형: 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들은 농어촌 지역에서의 거주와 교육과정 이수를 증명하기 위해 제출되어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.4686567164179105</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.5327380952380952</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 중학교와 고등학교 재학 시 부모 모두가 농어촌 지역에서 거주한 경우에는 추가로 제출해야 할 서류는 없습니다. 단, 지원자의 본인이 농어촌 지역 소재 학교에서 전 교육과정을 이수하고 거주한 자라는 점이 주요 조건입니다.
+참고로 6년 과정의 경우는 중학교와 고등학교 재학기간 동안 부모 모두가 농어촌 지역에 거주했음을 증명하는 추가 서류가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.3745583038869258</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.456140350877193</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 내용에서는 특정 단과대학이나 학과별로 저소득 기회균등 전형이 신설되거나 변경되는 내용은 확인되지 않았습니다. 따라서 현재의 정보로는 정시모집에서 저소득 기회균등 전형이 선발하지 않는 것으로 보입니다.
+만약 저소득 기회균등 전형에 대한 자세한 정보가 필요하시다면, 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 참조하거나 대학 입학처로 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0.2831858407079646</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.07207207207207206</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.1946902654867257</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2.5등급은 수능 영어영역 등급에 따른 점수에서 중간점수로 간주됩니다. 일반적으로 대학입시에서는 절사 처리를 하지 않고, 실제 점수나 등급을 그대로 반영합니다.
+따라서 2.5등급이 나온다면, 이는 2.5의 점수로 평균산출에 포함될 것입니다. 즉, 사탐 2과목의 평균산출에서는 2.5등급을 그대로 사용하여 계산하게 됩니다.
+예를 들어, 두 과목의 등급이 다음과 같다고 가정해봅시다:
+- 과목1: 3등급
+- 과목2: 2.5등급
+그러면 이 두 과목의 평균은 (3 + 2.5) / 2 = 2.75가 됩니다.
+따라서, 2.5등급을 절사하지 않고 그대로 반영하여 계산합니다.</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0.2538071065989848</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.07179487179487179</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.1928934010152284</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. 첫 번째 충원 합격자 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2. 두 번째 충원 합격자 발표 일정은 같은 날인 2024년 2월 15일(목) 09:00입니다.
+3. 세 번째 충원 합격자 발표 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보로 이루어집니다.
+따라서, 정시 충원 합격자 발표는 총 3차로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0.4656084656084656</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.213903743315508</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.3597883597883598</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2024학년도의 정확한 모집요강을 확인하기 위해서는 해당 대학교의 입학처 웹사이트를 참조하는 것이 가장 좋습니다. 하지만, 일반적으로 e비즈니스학과의 수능 성적 기준을 살펴보겠습니다.
+주어진 정보에 따르면, e비즈니스학과의 모집단위는 상경대학 인문사회 계열이며, 수능 반영 영역 및 가산점은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학(확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+가산점은 없습니다.
+수능 성적이 4.6이면, 이는 등급으로 보면 대략 B등급 정도입니다. 일반적으로 e비즈니스학과의 수능 기준 점수가 4.0 이상이라면, 4.6이라는 점수는 충분히 경쟁력을 갖추고 있을 것입니다.
+하지만 정확한 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 모집인원과 지원 인원의 비율
+2. 다른 전형(학생부종합, 실기 등)으로부터의 경쟁자 수
+3. 해당 대학의 전체적인 입시 경향
+따라서, 정확한 답변을 위해서는 해당 대학교의 2024학년도 모집요강을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.
+추가적으로, e비즈니스학과의 수능 성적이 4.6이라면, 추가적인 지원 전략으로서:
+- 학생부를 잘 준비하여 인성 및 학업역량을 강조하는 것이 필요할 수 있습니다.
+- 면접에서도 자신감 있게 지원 동기와 학업 계획을 설명해야 합니다.
+이런 점들을 고려하면, 4.6이라는 성적은 추가적으로 노력한다면 정시 전형으로도 충분히 합격 가능성이 있을 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0.3488</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.08025682182985552</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.1952</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률과 지원자 수를 고려할 때, 정시 등급 5.3이면 최초 합격 가능성은 매우 낮습니다.
+주요 이유는 다음과 같습니다:
+1. **경쟁률**: e비즈니스학과의 모집인원은 10명이고 지원 인원은 89명으로 경쟁률이 8.90입니다.
+2. **평균 등급**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 438.60입니다.
+3. **등급 분포**: 등급 5.3은 상당히 높은 등급으로, 이보다 낮은 등급의 지원자는 대부분 경쟁에서 밀릴 가능성이 큽니다.
+따라서 정시 등급 5.3이면 e비즈니스학과에 최초 합격하기는 매우 어려울 것으로 예상됩니다. 대신 다른 모집단위나 전형을 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0.4092664092664093</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.1556420233463035</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 답변 드리겠습니다. 하지만, 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다:
+1. **전형별 평균 점수와 경쟁률**: 
+   - 전형별로 지원자의 수와 모집인원이 다르므로, 경쟁률과 평균 점수가 중요합니다.
+   - 예를 들어, ICT융합공과대학의 전기공학과, 전자공학과에서는 경쟁률이 1.52였고, 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합은 286.64였습니다.
+2. **개인 성적**:
+   - 지원자의 수능 점수가 중요합니다. 예를 들어, 전기공학과와 전자공학과에서는 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합이 286.64였습니다.
+   - 지원자의 수능 점수가 이보다 높다면, 예비합격 가능성은 높아집니다.
+3. **서류 및 면접 평가**:
+   - 서류평가와 면접평가에서도 개인의 성적 외에도 학업역량, 전공적합성 등이 고려됩니다.
+   - 예를 들어, 나군 학생부종합(조기취업형계약학과전형)에서는 학업역량, 전공적합성 등을 평가합니다.
+4. **모집단위 특성**:
+   - 각 모집단위의 특성과 지원자의 적합성을 고려해야 합니다.
+   - 예를 들어, 경기지도학과는 실기고사 성적이 중요할 수 있습니다.
+5. **추천서 및 추천인 평가**:
+   - 일부 전형에서는 추천서나 추천인의 평가도 중요한 요소일 수 있습니다.
+따라서, e비즈니스학전공 예비 38번 점수만으로는 정확한 예비합격 가능성 판단이 어렵습니다. 전체 지원자의 성적 분포와 경쟁률을 고려해야 합니다. 
+**추천 사항:**
+1. **입학사정관의 평가**: 입학사정관의 평가는 중요합니다. 개인의 학업역량, 전공적합성 등을 잘 보여줄 수 있는 서류를 준비하는 것이 좋습니다.
+2. **면접 준비**: 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성을 잘 설명할 수 있어야 합니다.
+**추가 정보 확인:**
+- 입학사정관의 평가 기준과 절차를 확인하세요.
+- 모집단위별 특성과 요구사항을 다시 한번 검토해 보세요.
+더 자세한 정보나 추가 질문이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)에서 확인하거나 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0.1269230769230769</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.02316602316602317</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.08461538461538462</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 합격할 확률은 낮지만, 불가능한 것은 아닙니다. 간호학과는 경쟁률이 높은 곳이므로 3.44 등급은 평균적인 점수보다 약간 낮습니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 간호학과의 경쟁률이 매우 높기 때문에, 3.44 등급으로 합격하기 위해서는 특별한 강점이나 우수한 서류 평가 결과가 필요할 수 있습니다.
+2. **서류평가**: 동의대학교는 학생부종합전형을 통해 서류평가를 실시합니다. 이 부분에서 뛰어난 성적 외에도 다양한 활동과 경험, 그리고 간호학과에 대한 열정 등을 잘 보여줄 수 있다면 유리할 수 있습니다.
+3. **면접**: 면접에서도 간호사로서의 적합성을 잘 표현하고, 간호학과에 대한 진심 어린 관심을 보일 수 있다면 긍정적인 평가를 받을 가능성이 있습니다.
+4. **추천서 및 자기소개서**: 추천서와 자기소개서에서 자신의 강점을 잘 부각시키고, 간호사로서의 적합성을 잘 설명할 수 있다면 이 부분에서도 좋은 점수를 받을 수 있습니다.
+5. **특기사항**: 특기사항이나 창의적 체험활동 등에서 뛰어난 성과를 보여주었다면 이를 서류평가와 면접에서 강조할 수 있습니다.
+결론적으로, 3.44 등급으로는 합격 확률이 낮지만, 잘 준비하고 노력한다면 가능성을 열어두는 것이 좋습니다. 특히 서류평가와 면접에서 뛰어난 성적 외에도 다양한 활동과 경험을 잘 보여줄 수 있다면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.1344086021505377</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 영어 등급으로 보이는데, 동의대학교 간호학과의 경우 다음과 같은 특징을 가지고 있습니다:
+1. **모집인원**: 정원 내 모집 인원은 22명입니다.
+2. **지원인원**: 지원 인원은 145명이며, 경쟁률은 6.59:1입니다.
+3. **최종등록자 성적**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48
+   - 영어 등급의 평균은 2.34
+   - 수능 4개 영역 등급의 평균은 3.37
+이러한 정보를 바탕으로, 2.52라는 점수는 간호학과의 최종등록자 중에서 상당히 낮은 점수입니다.
+**결론**: 
+- **경쟁률이 매우 높습니다**: 6.59:1이라는 경쟁률을 고려하면, 2.52라는 점수가 충분한 것은 아닙니다.
+- **평균점수가 높습니다**: 최종등록자들의 평균 영어 등급이 2.34이며, 이보다 낮은 점수는 합격하기 어렵다고 볼 수 있습니다.
+따라서, 2.52라는 점수로 동의대학교 간호학과에 정시로 최종합격하는 것은 매우 어려울 것으로 보입니다. 다른 전형이나 대학을 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0.311864406779661</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.1296928327645051</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.1898305084745763</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>2024학년도 간호학과의 경쟁률은 6.59로 높습니다. 지원 인원이 많고 모집인원이 적기 때문에, 정시 성적이 3.7이라면 합격하기는 어렵다고 볼 수 있습니다.
+간호학과의 최종등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 이는 정시 성적이 3.7인 경우 상당히 높은 수치입니다.
+다만, 간호학과는 수능 성적 외에도 학생부 등 다른 요소를 고려하기 때문에, 다음과 같은 방법을 통해 합격 가능성을 높일 수 있습니다:
+1. **학생부 평가**: 강한 자질이나 특기사항이 있다면 이를 잘 보여줄 수 있어야 합니다.
+2. **면접 준비**: 면접에서도 좋은 성적을 받을 수 있도록 충분히 준비해야 합니다.
+3. **추천서**: 가능하다면 교사나 직업인의 추천서를 받아볼 수 있습니다.
+결론적으로, 정시 성적이 3.7이라면 간호학과에 합격하기는 어렵지만, 다른 평가 요소들을 잘 활용한다면 합격 가능성은 높일 수 있을 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0.2602739726027398</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.1506849315068493</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 22명이며, 지원 인원이 145명으로 매우 높은 경쟁률을 보이고 있습니다. 최종등록자와 최초합격자의 성적 분석을 보면 다음과 같습니다:
+- **최종등록자 평균성적**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 489.72입니다.
+- **최초합격자 평균성적**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 489.72입니다.
+이러한 데이터를 바탕으로, 정시 성적이 2.58인 경우 간호학과에 합격하기는 매우 어려울 것으로 보입니다. 이 성적은 최종등록자와 최초합격자의 평균성적(489.72)보다 훨씬 낮습니다.
+하지만, 정시 모집에서는 다양한 요소가 고려되므로 다음과 같은 방법을 통해 합격 가능성을 높일 수 있습니다:
+1. **면접 성능**: 면접에서 좋은 평점을 받는 것이 중요합니다.
+2. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서가 도움이 될 수 있습니다.
+3. **특기사항**: 특기사항이나 봉사활동 등이 있다면 이를 강조할 수 있습니다.
+결론적으로, 2.58이라는 성적로 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 보입니다. 하지만 최선을 다해 준비한다면 합격 가능성은 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0.2175066312997347</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.07466666666666667</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.1750663129973475</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到具体的关于"게임공학과"(Game Engineering)的信息，包括该专业的录取要求、招生人数等。因此，仅凭您提供的信息无法确定是否能被游戏工程学专业录取。
+建议您可以参考以下步骤来判断：
+1. **查看学校官网**：访问东国大学（Deu）的官方网站，查找与游戏工程相关的具体招生信息。
+2. **确认招生计划**：了解该专业的招生人数、录取标准等详细信息。
+3. **评估自身条件**：根据您的成绩和其他申请材料来判断是否符合录取要求。
+如果您能提供更多关于您个人情况的信息（如高考分数、其他科目的成绩等），我可以帮助您进一步分析。另外，如果还有疑问或需要更详细的指导，建议直接咨询学校的招生办公室或者访问学校官网获取最新信息。
+您可以访问以下链接以获取更多信息：
+https://ipsi.deu.ac.kr/main.do
+希望这些信息对您有所帮助！如果有更多具体问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.09803921568627452</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자에서 모집인원은 3명으로, 지원 인원이 16명이며 경쟁률이 5.33입니다.
+수능 성적이 4.16정도라면, 표준 변환 점수 합 평균은 약 424.05이고 표준 편차는 약 8.27입니다. 이 수치를 참고하여 지원자의 위치를 파악해볼 수 있습니다.
+평균이 424.05이고 표준 편차가 8.27일 때, 4.16정도의 성적은 평균에서 약 -3.9점 정도 차이가 납니다 (424.05 - 4.16 * 8.27 ≈ 424.05 - 33.25 = 390.8).
+표준 편차를 기준으로 보면, 이 점수는 평균보다 약 0.47 표준편차 아래에 위치합니다 (390.8 / 8.27 ≈ -4.68, 여기서 약 -0.47).
+이러한 성적을 가진 지원자가 경쟁률이 5.33인 모집단위에서 얼마나 많은 합격 가능성을 가지는지는 정확히 예측하기 어렵습니다. 그러나 평균보다 상대적으로 낮은 점수를 받았기 때문에, 충원 합격 (후보순위)이 3명이라는 점을 고려하면, 추가 합격 가능성은 매우 낮을 것으로 보입니다.
+결론적으로, 수능 성적이 약 4.16인 경우, 게임공학과에서 추가로 받을 가능성이 있는 합격 순위는 상당히 높아질 것입니다. 경쟁률이 높고 모집 인원이 적은 만큼, 이 점수를 가진 지원자는 충원 합격에 도전하는 것이 어렵다고 볼 수 있습니다.
+따라서 추가 합격 가능성은 매우 낮으며, 최선의 결과는 충원 합격 순위 안에 들지 않을 가능성이 높습니다.</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0.251336898395722</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.1236559139784946</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.160427807486631</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+주어진 정보만으로는 경영정보학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 및 표준 편차 등의 데이터가 제공되지 않았습니다. 따라서 정확한 판단을 위해서는 해당 단과대학과 모집단위의 최종등록자들의 성적 분포를 확인해야 합니다.
+하지만 일반적으로, 경영정보학과의 경우 다음과 같은 절차와 기준이 적용될 수 있습니다:
+1. **성적 평균 및 표준 편차**: 2024학년도 모집단위별로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 표준 편차를 확인해야 합니다. 이 정보는 해당 단과대학의 공지사항이나 입학처 홈페이지에서 확인할 수 있습니다.
+2. **경쟁률**: 3.75라는 성적을 가진 지원자가 경쟁률이 높은 모집단위에서는 최초 등록자로 선발될 가능성은 낮을 수 있습니다. 반면, 경쟁률이 낮은 모집단위에서는 가능성이 더 큽니다.
+3. **전형별 기준**: 학생부종합, 실기/실적, 조기취업형 계약학과 등 다양한 전형의 기준을 확인해야 합니다. 각 전형별로 서류 평가와 면접 등의 비율이 다르므로, 해당 전형의 기준을 충족하는지 확인해야 합니다.
+4. **추천 및 특례**: 일부 단과대학에서는 추천전형이나 특례전형 등을 통해 성적이 조금 낮은 지원자도 선발할 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+- 해당 단과대학의 2024학년도 입시 안내를 확인하세요.
+- 최종등록자의 성적 분포와 경쟁률을 파악하세요.
+- 전형별 기준을 충족하는지 확인하세요.
+위 정보를 바탕으로, 현재 제공된 성적(3.75)이 경영정보학과의 최초 등록자로 가능할 것인지 판단하기 위해서는 추가적인 데이터가 필요합니다. 더 자세한 정보를 원하시면 해당 대학 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+이 링크를 통해 동의대학교의 공식 홈페이지에서 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.05785123966942149</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.1152263374485597</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 모집단위의 경영정보학과에 대한 최종 등록자의 성적 정보를 확인해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 313.13
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 5.75
+이 정보를 바탕으로, 경영정보학과 정시 성적이 4.2라면 이는 평균보다 약간 낮은 수치입니다.
+- **평균**: 313.13
+- **표준 편차**: 5.75
+이 표준 편차를 이용하여, 한 표준 편차 내외의 범위를 계산해보겠습니다:
+- 하한: 313.13 - 5.75 = 307.38
+- 상한: 313.13 + 5.75 = 318.88
+따라서, 4.2는 약 0.69 표준 편차 아래에 위치합니다 (313.13 - 4.2 ≈ 308.93).
+이 정도의 성적은 평균보다 약간 낮지만, 여전히 최종 등록자들 중 상위 절반 내외의 성적을 보여주고 있습니다.
+따라서, 경영정보학과 정시 성적이 4.2라면 최초등록 가능성은 높습니다. 하지만 확실한 결정을 위해서는 해당 모집단위의 경쟁률 및 지원자들의 전체 성적 분포를 고려해야 합니다.
+추가적으로, 다른 요인들도 고려해야 합니다:
+1. **수능 영역 등급**: 4.2는 수능 영역 등급으로 보면 3-4등급 사이입니다.
+2. **학생부 및 기타 서류 평가**: 학생부와 면접 등의 평가 결과도 중요한 요인입니다.
+따라서, 최초등록 가능성은 높지만 확실한 결정을 내리기 위해서는 전체 지원자들의 성적 분포를 더 자세히 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0.2216494845360825</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.05699481865284974</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.1288659793814433</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年高考成绩**：您提到的5.33是指英语等级分。根据提供的信息，经管类专业的录取标准如下：
+   - 国语 + 数学 + 研究（两个科目）+ 英语等级分 + 加分（如果有）
+2. **具体专业要求**：对于经管类的专业如 经营信息学和电子商务学，高考成绩的计算方法是：
+   - 国语标准分数
+   - 数学标准分数
+   - 英语等级分
+   - 研究科目标准分数（两个研究科目的平均）
+3. **参考数据**：从提供的数据中可以看到，2024年经管类专业的录取情况如下：
+   - 经营信息学和电子商务学的国语、数学、英语等级分以及研究科目的平均成绩等。
+根据您提供的高考成绩5.33（即英语等级为5），我们需要查看该等级对应的分数。从给定的数据中，我们可以看到：
+- 英语等级4对应107分
+- 英语等级5对应115分
+因此，您的英语等级5对应115分。
+接下来，我们还需要考虑其他科目的成绩以及研究科目的平均成绩。假设您在国语、数学和研究科目上都取得了较好的分数，并且没有加分项的话，那么您的总分应该接近或超过录取线。
+具体来说：
+- 假设国语标准分为100分
+- 数学标准分为100分
+- 研究科目的平均分为95分（假设两个研究科目分别为93和97）
+计算如下：
+\[ 100 + 100 + (93+97)/2 \times 0.25 + 115 = 100 + 100 + 95 + 115 = 410 \]
+这个分数是否足够取决于具体的专业和当年的录取分数线。如果该分数接近或超过当年的录取线，那么您有可能被录取。
+建议：
+- 查看具体的招生简章以获取最新的录取分数线。
+- 如果可能的话，咨询学校的招生办公室以获得更准确的信息。
+综上所述，在没有其他不利因素的情况下，您的成绩是有希望被经管类专业如 经营信息学和电子商务学录取的。但具体能否录取还需参考当年的实际录取情况。</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>0.04739336492890995</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.03791469194312796</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대한 지원 가능성은 다음과 같이 판단됩니다:
+1. **경쟁률 및 모집인원**: 
+   - 2024학년도 바이오응용공학부는 총 모집 인원이 99명입니다.
+   - 최초등록자의 경쟁률은 2.40이며, 지원자 수는 238명입니다.
+2. **성적 평균 및 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 311.13입니다.
+   - 이는 약 3.33 정도의 성적을 의미합니다.
+3. **성적 분석**:
+   - 현재 제공된 데이터를 바탕으로, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 311.13이고, 지원자 중 약 40% 정도만 선발되는 경쟁률을 고려하면, 성적이 약 3.33인 경우에도 충분히 가능성이 있습니다.
+   - 그러나 최초등록자는 경쟁률이 높아서 절대적으로 좋은 성적을 가지고 있어야 합니다.
+4. **추천 사항**:
+   - 성적이 약간 낮더라도, 다른 평가 요소(영어 등급, 수능 4개 영역 등급 등)를 잘 보완한다면 가능성이 있습니다.
+   - 학교생활기록부와 면접에서 좋은 평가를 받을 수 있도록 준비해야 합니다.
+결론적으로, 성적이 약간 낮더라도 다른 평가 요소들을 잘 보완한다면 바이오응용공학부 최초등록자로 선발될 가능성이 있습니다. 그러나 확실한 것은 아니므로, 정확한 결과는 입시 결과 발표를 기다려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다.
+방사선학과는 공과대학 소속이며, 일반학생전형으로 지원할 때 다음과 같은 특징이 있습니다:
+1. **모집단위 및 모집인원**: 방사선학과는 정확한 모집인원은 제공되지 않았지만, 이전년도와 유사하게 20-30명 정도를 모집하는 것으로 알려져 있습니다.
+2. **수능 반영 영역 및 가산점**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+3. **가산점**: 수학(미적분 또는 기하) 응시자에 한해 수학 취득 표준점수의 10% 가산점이 있습니다.
+4. **성적 산출 예시**:
+   - 국어: 104
+   - 수학(미적분): 108
+   - 영어: 4등급 (대략 35점)
+   - 탐구: 47, 59
+이러한 기준을 고려하면, 제출하신 성적으로 방사선학과에 지원하는 것은 가능합니다. 하지만 경쟁률이 높아서 확실하지는 않습니다.
+**추천사항**:
+1. **성적 분석**: 현재의 성적을 위와 같이 반영해보시고, 평균 점수를 계산해보세요.
+2. **경쟁률 확인**: 이전년도의 경쟁률과 지원 인원 등을 참고하여 현실적인 기대치를 설정하세요.
+3. **추가 준비**: 면접이나 서류평가에서 좋은 성적을 받기 위해 추가적으로 준비하는 것이 좋습니다.
+만약 더 자세한 정보나 조언이 필요하시다면, 해당 대학의 입학처 웹사이트 또는 직접 문의하시는 것을 추천드립니다. https://ipsi.deu.ac.kr/main.do 에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>0.1654135338345865</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.02015113350125945</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높아 보입니다. 지원 인원이 36명이고 모집인원은 5명이므로, 평균적인 경쟁률을 고려할 때 2.66이라는 표준 변환 점수는 상대적으로 낮은 편입니다.
+다만, 정시모집의 경우 여러 요소가 복합적으로 작용하기 때문에 단순히 점수만으로 판단하기는 어렵습니다:
+1. **경쟁률**: 현재 경쟁률이 높기 때문에 2.66이라는 점수로 충분한 확률을 보장받기는 어려울 수 있습니다.
+2. **학업역량 및 전공적합성 평가**: 면접이나 서류평가에서 좋은 성과를 얻어야 합니다. 특히, 방사선학과는 실무 능력이 중요하므로 관련 경험과 역량을 잘 보여줘야 합니다.
+3. **학생부 교과성적**: 2024년부터 학생부 교과성적이 반영되는 범위가 확대되었습니다 (12과목). 이 점수를 고려하여 학업역량을 강화하는 것이 중요합니다.
+4. **면접 및 서류평가**: 면접에서는 지원동기와 학업계획, 전공적합성에 대한 답변이 중요하며, 서류 평가는 학교생활기록부의 내용과 일치성을 확인받아야 합니다.
+따라서 2.66이라는 점수로는 위험이 있습니다만, 적절한 준비와 노력으로 좋은 결과를 얻을 수 있을 것입니다. 특히 면접 및 서류평가에서 뛰어난 성과를 보여주면 경쟁력을 높일 수 있습니다.
+추가적으로, 입학사정관들이 중요하게 평가하는 요소들을 강화하여 지원할 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>0.2028169014084507</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.0396600566572238</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.1295774647887324</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 정시 모집에서 농어촌 특별전형의 경우 주로 다음과 같은 요소들을 고려합니다:
+1. **학교 성적**: 3.66이라는 성적은 중간적인 수준입니다. 대부분의 대학에서는 평균 이상의 성적이 요구되므로, 이 정도 성적은 충분히 가능할 수 있습니다.
+2. **학생부 종합평가**: 농어촌 특별전형에서 학생부 종합평가는 중요한 요소로 작용합니다. 공동체역량, 학업역량, 전공적합성 등 다양한 평가 영역을 고려하므로, 이 부분이 잘 반영되어 있다면 유리할 수 있습니다.
+3. **추천서 및 자기소개서**: 추천서와 자기소개서는 농어촌 특별전형에서 중요한 역할을 합니다. 자신의 성장과정과 농어촌 배경, 그리고 경찰행정학에 대한 열정 등을 잘 표현한다면 유리할 수 있습니다.
+4. **면접 성적**: 면접에서도 학생의 인성과 전공 적합성을 평가하므로, 자신감 있게 준비하고 답변하는 것이 중요합니다.
+5. **추천학교 및 입학사정관의 판단**: 각 대학에서 농어촌 특별전형을 담당하는 입학사정관들의 판단이 큰 영향을 미칩니다. 이들은 지원자의 전반적인 적합성을 종합적으로 평가합니다.
+따라서, 3.66이라는 성적만으로는 확실한 합격 여부를 예측하기 어렵습니다. 하지만 학생부와 자기소개서 등 다른 요소들이 잘 준비되었다면 좋은 결과를 기대할 수 있습니다. 지원을 위해 다음과 같은 조치들을 취해보세요:
+- **학생부 종합평가**: 공동체역량, 학업역량, 전공적합성 등을 강조하는 내용으로 작성하세요.
+- **추천서 및 자기소개서**: 농어촌 배경과 경찰행정학에 대한 열정을 잘 표현하세요.
+- **면접 준비**: 자신감 있게 답변하고, 인성과 전공 적합성을 잘 보여주세요.
+최종 결정은 입학사정관의 판단에 따라 달라질 수 있으므로, 최선을 다해 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>0.2567049808429119</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.1762452107279694</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수나 좋은 서류 평가를 필요로 합니다. 그러나 정시 일반학생 전형에서 예비 합격자가 나오더라도 최종 합격 여부는 여러 요인에 따라 결정됩니다.
+1. **최종 합격자 발표**: 2024년 2월 2일 금요일 14:00에 최초 합격자 발표가 있을 것입니다. 이 때 예비 합격자가 최종 합격자로 결정되는 경우도 있습니다.
+2. **등록금 납부**: 최종 합격자는 등록금을 납부해야 합니다. 등록금 납부 기간은 2024년 2월 7일 수요일부터 13일 화요일까지입니다. 이 기간 내에 등록금을 납부하지 않으면 합격이 취소될 수 있습니다.
+3. **출결 및 서류 평가**: 예비 합격자는 출결과 서류 평가를 통해 최종 합격 여부가 결정됩니다. 이 부분에서 좋은 점수나 서류를 제출하면 합격 가능성은 높아질 수 있습니다.
+4. **면접 및 실기 평가**: 일부 전형에서는 면접이나 실기를 거쳐 최종 합격자가 결정되므로, 이 부분에서도 좋은 성적을 받는 것이 중요합니다.
+따라서 현재 예비 25번으로 나왔다고 해도 아직 최종 결과는 불확실합니다. 등록금 납부 기간 내에 등록금을 납부하고, 출결 및 서류 평가에서 좋은 점수를 받으면 합격 가능성은 높아질 수 있습니다.
+추가 정보나 자세한 질문이 있으시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>0.1989795918367347</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부의 경우, 전형별 모집인원과 지원 경쟁률 등을 고려해보면 다음과 같은 정보가 있습니다:
+1. **법학과**:
+   - 정원 내 모집 인원: 7명
+   - 지원 인원: 40명
+   - 경쟁률: 5.71
+   - 충원 합격 (후보순위): 13명
+2. **경찰행정학과**:
+   - 정원 내 모집 인원: 7명
+   - 지원 인원: 29명
+   - 경쟁률: 4.14
+   - 충원 합격 (후보순위): 7명
+이 정보를 바탕으로, 법경찰행정학부의 경우 경찰행정학과가 더 낮은 경쟁률을 보이고 있습니다.
+**법학과**:
+- **평균 성적**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 315.78
+- **표준 편차**: 6.84
+**경찰행정학과**:
+- **평균 성적**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 300.68
+- **표준 편차**: 8.73
+**결론**:
+1. **법학과**: 안정적인 합격을 위해서는 최소 295점 이상, 목표로 하면 315점 이상의 성적을 받는 것이 좋습니다.
+2. **경찰행정학과**: 안정적인 합격을 위해서는 최소 280점 이상, 목표로 하면 300점 이상의 성적을 받는 것이 좋습니다.
+이러한 평균 점수와 표준 편차를 고려하면, 경쟁률이 낮은 **경찰행정학과**가 더 안정적인 합격 가능성을 가지고 있습니다. 그러나 법학과도 충분히 가능성이 있으므로, 성적을 최대한 높여서 지원하는 것이 좋습니다.
+추가적으로, 수능 영역별 등급도 중요한 요소이므로, 4개 영역의 평균 등급이 4.27 이상인 것을 목표로 하면 안정적인 합격 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>0.3831070889894419</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.1633888048411498</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.2473604826546003</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항을 보면, 보육가정상담학과는 2023학년도에는 보육·가정상담학과였으나, 2024학년도에는 아동학과로 분리되었습니다. 따라서 현재의 정보를 바탕으로 보육가정상담학과에 대한 정보는 없습니다.
+보유된 데이터 중에서 아동학과와 관련된 정보는 없지만, 일반적으로 정시 모집에서는 수능 등급이 학과별로 다른 기준을 가지고 평가됩니다. 아동학과의 경우, 전형요소 중 수능 영역은 국어, 수학, 영어, 탐구 등이 반영되며, 각 영역별로 가중치가 부여되어 점수를 산출합니다.
+만약 5.33이라는 등급이 해당 학과의 평균적인 입학 기준을 충족하는 수준이라면,理论上，如果您的英语等级为5.33，并且该等级符合同济大学儿童学专业的入学标准，则有可能被录取。但是，具体是否能够被录取还需要参考以下几点：
+1. **学校的具体录取分数线**：不同专业和学校的录取分数线可能会有所不同。
+2. **其他科目成绩**：除了英语之外的其他科目的成绩也会影响录取结果。
+3. **综合评价**：一些专业的录取不仅仅依赖于分数，还可能包括面试、综合素质评估等。
+建议您查看同济大学儿童学专业的具体招生简章或咨询学校招生办公室以获取最准确的信息。如果不确定，请访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 以获得更多信息。
+如果您需要更详细的信息，可以参考以下步骤：
+1. 访问同济大学的官方网站：[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+2. 查找儿童学专业的招生简章或相关信息
+3. 了解具体的录取标准和要求
+希望这些信息对您有所帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0.3819444444444445</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.1398601398601399</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 전형 일정과 관련된 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 정보 중에서는 보육가정상담학과(이제 아동학과로 분리됨)에 대한 충원 합격자 발표 및 등록 일정은 다음과 같습니다:
+- **2024. 02. 15.(목) 09:00~16:00**: 충원 합격자 2차 (인터넷) 등록
+- **2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지**: 충원 합격자 3차 이후 (개별 전화 통보)
+이러한 일정을 고려할 때, 현재까지의 정보로는 3차 예비 합격자(예비 12번)가 최종적으로 합격하는 확률은 상당히 낮습니다. 일반적으로 충원 합격자는 정원 내 합격자가 결정된 후에 발표되며, 이 과정에서 많은 경쟁이 발생합니다.
+하지만 개별 전화 통보 방식으로 진행되는 3차 이후 합격자 발표는 불확실성이 있습니다. 따라서 최종 결과를 확인하기 위해서는 해당 기간 동안 주의 깊게 대기하고, 학교 입학관리팀이나 공지사항을 통해 최신 정보를 확인하는 것이 좋습니다.
+추가적으로, 합격 가능성에 대한 확실한 답변은 학교에서 제공하는 최종 결과를 기다려야 합니다. 따라서, 학교의 공식 홈페이지나 입학처와 연락하여 자세한 정보를 얻는 것을 추천드립니다.
+https://ipsi.deu.ac.kr/main.do
+이러한 절차를 통해 가장 정확하고 최신의 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>0.4203539823008849</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.2079646017699115</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>4.75의 등급평균은 상당히 높은 점수입니다. 하지만 유아교육학과에 입학하기 위해서는 수능 성적뿐만 아니라 학생부 종합 평가도 중요한 요소로 작용합니다.
+1. **수능 성적**: 4.75의 등급평균은 매우 높습니다. 이 점수만으로도 충분히 좋은 대학에 입학할 수 있는 기회는 있습니다. 특히, 유아교육학과는 일반적으로 수능 성적이 낮은 편이기 때문에 4.75의 등급평균은 큰 장점입니다.
+2. **학생부 종합 평가**: 학생부 종합 평가는 공동체역량, 학업역량, 전공적합성 등을 평가합니다. 이 부분에서 좋은 성적이 나와야 합니다. 특히, 유아교육학과는 교사로서의 역량과 열정을 중요하게 평가하기 때문에 학생부에서 이러한 면모를 잘 보여줘야 합니다.
+3. **전형별 특성**: 
+   - **조기취업형 계약학과 전형**: 이 경우에는 수능 성적이 주요한 요소로 작용합니다. 4.75의 등급평균은 충분히 좋은 점수입니다.
+   - **학생부 종합 평가 전형**: 학생부와 면접에서 좋은 성적을 보여줘야 합니다.
+4. **경쟁률과 지원 인원**: 유아교육학과는 경쟁률이 높은 편이므로, 수능 성적이 높고 학생부 종합 평가에서도 우수한 점수를 받으면 좋은 입학 가능성을 가지게 됩니다.
+결론적으로, 4.75의 등급평균은 유리한 조건입니다. 하지만 학생부와 면접에서 좋은 성적을 보여줘야 합니다. 따라서 다음과 같은 준비가 필요합니다:
+- **학생부 작성**: 공동체역량과 학업역량, 전공적합성에 대한 내용을 잘 담아야 합니다.
+- **면접 준비**: 지원동기와 학업계획, 학업역량 및 전공적합성을 잘 설명할 수 있어야 합니다.
+이러한 조건들을 충족시킨다면 유아교육학과 입학 가능성은 높습니다.</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>0.2133676092544987</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.04123711340206185</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.1131105398457583</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 보육가정상담학과에 대한 정보를 바탕으로 답변 드리겠습니다.
+보육가정상담학과는 상경대학에 속하며, 2024학년도 모집인원은 7명이고 지원 인원이 37명입니다. 경쟁률은 약 5.29이며, 충원 합격자는 17명으로 알려져 있습니다.
+현재 제공된 정보를 바탕으로:
+- **경쟁률**: 5.29
+- **충원 합격자 수**: 17명
+- **평균 등급**: 4.00 (국어, 수학, 영어, 탐구 등급의 평균)
+당신의 환산등급이 4.16이라면, 이는 평균 이상입니다. 그러나 경쟁률이 높고 충원 합격자 수도 많기 때문에, 단순히 등급만으로 합격을 보장할 수는 없습니다.
+**추천 사항:**
+1. **전형 요소**: 전형요소 중 서류평가와 면접 평가의 중요성이 높으므로, 이 부분에서도 좋은 성적을 거두어야 합니다.
+2. **면접 준비**: 면접 질문 공통문항과 부정적 사례를 잘 이해하고 대비해야 합니다.
+3. **서류 준비**: 학교생활기록부와 서류평가 영역에서의 평가 기준을 충족시켜야 합니다.
+결론적으로, 환산등급이 4.16이라면 좋은 성적일 수 있지만, 경쟁률과 충원 합격자 수를 고려할 때, 추가적인 준비와 노력이 필요합니다. 자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 확인하시거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.0670391061452514</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시 모집이 이루어지지 않습니다. 해당 학과는 일반학생전형으로만 모집되고 있으며, 이 경우 수능 성적이 주요 평가 요소로 작용합니다.
+ICT융합공과대학의 소프트웨어공학부는 2024학년도에도 정시 모집이 이루어지지 않습니다. 따라서 정시로 들어갈 수 있는 방법은 없습니다.
+그러나 일반학생전형으로 지원하려면, 평균 등급을 살펴보겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이러한 평균을 기준으로 지원할 경우, 경쟁률은 약 4.87이며 충원 합격자는 63명입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수를 얻는 것이 유리할 것입니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 340~350 이상
+- **영어 등급**: 3.5 이상
+이러한 성적을 기록하면 경쟁력을 갖추게 됩니다. 그러나 이는 단순 평균치이며, 실제 지원자들의 성적이 매우 다양하기 때문에, 최종 합격 가능성은 개인의 실력과 경쟁률에 따라 달라질 수 있습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>0.08633093525179857</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.05797101449275362</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.07194244604316546</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>《소프트웨어융합학과의 면접 및 서류 평가에 대한 답변》
+1. **면접 점수와 세특(세부능력 및 특기사항)의 중요성**:
+   - 소프트웨어융합학과에서는 면접 점수뿐만 아니라, 제출서류에서 기재된 세특 내용도 중요한 평가 요소로 작용합니다. 특히, 지원자의 전공적합성을 판단할 때는 세특 내용이 매우 중요하게 고려됩니다.
+   - 면접에서는 학업역량과 전공적합성에 대한 질문을 통해 지원자의 문제 해결 능력과 진로 탐색 능력을 평가합니다. 이와 관련된 답변은 면접 점수에 영향을 미칩니다.
+2. **필요한 서류**:
+   - **고교 졸업(예정)자**: 학생부 온라인 제공 동의자가 아닌 경우, 고교 학교생활기록부 1부를 제출해야 합니다.
+   - **검정고시 출신자 / 외국고교 졸업(예정)자**: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부를 제출해야 합니다. 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서와 성적증명서를 제출해야 하며, 이는 한국어 번역본과 함께 제출되어야 합니다.
+3. **세특 내용의 중요성**:
+   - 세특 부분에서는 지원자가 소프트웨어융합학과에 대한 관심과 이해도를 보여줄 수 있는 경험을 기재해야 합니다.
+   - 예를 들어, 프로그래밍 경험이나 관련 동아리 활동, 코딩 대회 참여 등이 적절한 내용일 수 있습니다.
+4. **준비 방법**:
+   - 지원자의 학업역량과 전공적합성을 증명할 수 있는 경험을 세특에 잘 기재해야 합니다.
+   - 면접 질문에 답변하면서도, 제출서류와의 일관성을 유지하는 것이 중요합니다.
+따라서, 소프트웨어융합학과에서는 면접 점수뿐만 아니라 세특 내용도 중요한 평가 요소로 작용하므로, 지원자는 서류 준비와 면접 준비 모두 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>0.1534772182254197</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.04337349397590362</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.1151079136690648</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수웨어공학부의 경우, 최초합격자의 수능 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+당신이 제시한 성적은 수능 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.08입니다.
+이 점수는 평균보다 약간 높습니다 (317.87 보다 약간 높음), 하지만 영어 등급만으로 판단하면 평균보다 낮습니다 (3.77 보다 낮음).
+따라서, 수능 성적이 약간 높은 편이지만, 영어 점수가 조금 부족한 상황입니다. 경쟁률과 모집인원을 고려할 때, 충분히 가능하지만 확실한 것은 아닙니다.
+결론적으로:
+- **수능 성적**: 약간 높음 (4.08)
+- **영어 점수**: 약간 낮음 (3.77)
+이런 상황에서는 지원을 해볼 만합니다. 하지만 경쟁률과 모집인원을 고려하면, 다른 지원자들과의 비교에서 조금 어려울 수 있습니다.
+추가적으로:
+1. **영어 실력 향상**: 영어 점수를 높이는 것이 중요합니다.
+2. **추천서 및 자기소개서**: 이 부분에 강점을 보여줄 수 있는 자료 준비도 필요합니다.
+3. **면접 준비**: 면접에서도 좋은 성적을 받기 위해 충분히 준비해야 합니다.
+자세한 정보는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 학교에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.1269035532994924</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.2070707070707071</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 전형 요소 반영 비율이 다음과 같습니다:
+- **나군 학생부종합(조기취업형계약학과전형)**:
+  - 서류(학생부): 60%
+  - 면접: 40%
+- **다군 수능(일반학생전형)**:
+  - 수능 반영 영역 및 잔여 비율은 국어, 수학, 영어, 탐구 중 상위 3개 영역을 반영합니다.
+이러한 전형 방식에서 5등급의 영어 점수는 상대적으로 낮은 점수입니다. 그러나 학생부와 면접 성적 등 다른 평가 요소들이 고려되기 때문에, 단순히 5등급만으로 결정할 수는 없습니다.
+특히 **나군 학생부종합(조기취업형계약학과전형)**에서는 서류 평가 비중이 높아서, 학생부에서 좋은 성적을 보여주면 가능성이 있습니다. 
+**다군 수능(일반학생전형)**에서도 수능 점수는 중요한 요소지만, 다른 영역의 성적이 좋다면 충분히 경쟁력을 갖출 수 있습니다.
+따라서 5등급의 영어 점수만으로 소프트웨어융합학과에 합격할 수 있을지는 불확실합니다. 다양한 평가 요소를 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>0.3402985074626866</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.1561561561561562</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.2029850746268657</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 107점 정도로 변환됩니다(영어 등급-점수对照表）。根据这个等值表，您的英语成绩处于第4等级。从您提供的信息来看，申请的是新材学部（高分子纳米学部），以下是几个关键指标：
+- 招生人数：56
+- 报考人数：81
+- 竞争比：1.45
+- 国语+数学+选修课（含加分）标准分总和的平均值：271.64
+- 国语+数学+选修课（含加分）标准分总和的标准差：19.52
+从这些数据来看，虽然竞争比不是非常高，但报考人数较多。因此，您的英语成绩处于中等水平，可能需要在其他科目上表现得更好一些才能有较高的录取几率。
+建议您：
+1. 确保国语、数学和选修课的成绩较高。
+2. 关注新材学部的具体招生要求和其他可能的加分项。
+3. 参考往年的录取分数线和具体分数分布情况，了解自己的位置。
+总体来说，您的英语成绩处于中等水平，但只要其他科目表现良好，还是有机会被录取的。建议您详细了解该专业的具体要求，并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.03157894736842106</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.1354166666666667</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+주요 내용을 요약하면:
+- 나군 수능(일반학생전형)은 서류평가와 면접평가가 포함되지만, 이 중 자기소개서는 제출 대상에 포함되어 있지 않습니다.
+- 전형요소 반영비율에서 실기 점수는 해당되지 않으므로, 실기고사는 필요하지 않습니다.
+- 지원자는 수능 성적과 서류평가(학생부 교과성적)만 준비하면 됩니다.
+따라서 수능 일반학생전형으로 지원하시려면 자기소개서 작성은 필요 없습니다. 단, 면접평가가 포함되어 있으므로 면접 준비는 필수입니다.</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>0.1258741258741259</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.05673758865248228</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.1118881118881119</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급을 가지고 추가모집에 지원하려는 경우, 여러 요인들을 고려해야 합니다.
+1. **모집단위와 모집인원**: 추가모집의 모집단위와 모집인원이 얼마나 되는지 확인해야 합니다. 예를 들어, 특정 학과가 5명을 모집하고 지원자가 20명이라면 경쟁률은 높을 수 있습니다.
+2. **경쟁률**: 현재 정시모집의 경쟁률을 참조하여 추가모집에서도 비슷하거나 더 높은 경쟁률이 예상되는지 확인해야 합니다.
+3. **성적 분포**: 지원자의 성적이 어떻게 분포되어 있는지를 파악해야 합니다. 4.5 등급이 평균보다 높다면 좋은 점수일 수 있지만, 만약 대부분의 지원자가 4.5 이상이라면 경쟁률은 여전히 높을 것입니다.
+4. **추가모집 특성**: 추가모집에서는 일반적으로 정시모집보다 더 많은 학생들을 선발하기 위해 다양한 요인을 고려할 수 있습니다. 따라서, 개인의 특성(학업역량, 전공적합성 등)이 중요하게 평가될 수 있습니다.
+5. **추가모집 기준**: 추가모집에서는 정시모집과 다른 기준을 적용할 수도 있으므로, 해당 학과나 학부의 추가모집 기준을 확인해야 합니다.
+6. **학생부 및 면접 성적**: 일부 학과에서는 학생부와 면접 성적이 중요한 역할을 하므로, 이 부분도 잘 준비해 두는 것이 좋습니다.
+추가모집에 지원하려면, 위의 요인들을 종합적으로 고려하고, 해당 학과나 학부의 추가모집 정보를 꼼꼼히 확인하는 것이 중요합니다. 필요하다면, 대학 입학처 또는 관련 학과 담당자에게 문의하여 자세한 정보를 얻는 것도 좋습니다.
+추가로, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 추가모집에 대한 공식 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>0.3866171003717472</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.1305970149253731</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.1970260223048327</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 경우, 지원 인원과 모집 인원의 비율을 보면 경쟁률이 1.45입니다. 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64이며, 영어 등급의 평균은 5.06입니다. 이는 전체 지원자 중 상위권을 차지하고 있습니다.
+따라서 신소재공학과와 분자나노공학과를 고려할 때, 정시 모집에서 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 270점 이상이고 영어 등급이 5.0 이상인 경우 합격 가능성이 높아 보입니다.
+하지만 최종 합격 가능성은 개인의 성적과 경쟁률, 모집 인원 등을 고려해야 하므로, 정확한 예측을 위해서는 동의대학교 입학처 웹사이트나 전문가와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>0.2770562770562771</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.06113537117903931</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.1645021645021645</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과와 응용자료공학과는 다음과 같은 특징을 가지고 있습니다:
+1. **모집인원**: 각각 56명입니다.
+2. **지원인원**: 각각 81명입니다.
+3. **경쟁률**: 각각 약 1.45:1입니다.
+4. **최종 평균 점수**:
+   - 신소재공학과: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 378.15이며, 표준 편차는 19.52입니다.
+   - 응용자료공학과: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 378.15이며, 표준 편차는 47.10입니다.
+이러한 정보를 바탕으로, 동일한 표준점수가 약간 차이 나는 경우도 있을 수 있습니다. 하지만 작년 신소재공학과의 최종 평균 점수와 비교했을 때, 현재의 447점은 매우 높은 점수입니다.
+**가능성 분석:**
+- **표준점수 변동**: 표준점수는 지원자의 성적 분포에 따라 변동할 수 있습니다. 작년과 올해 지원자의 성적이 다르다면, 평균 점수가 약간 달라질 수 있습니다.
+- **경쟁률 및 모집인원**: 신소재공학과와 응용자료공학과의 경쟁률이 비슷하며, 모집인원도 동일합니다. 이는 두 학과 간에 점수 차이가 크게 나는 것을 어렵게 만듭니다.
+- **표준 편차**: 신소재공학과의 표준 편차가 응용자료공학과보다 낮습니다 (19.52 vs 47.10). 이는 신소재공학과에서 점수 분포가 더 일관되어 있다는 것을 의미합니다.
+따라서, 작년 신소재공학과의 최종 평균 점수가 현재 447점보다 약간 높은 경우는 가능하지만, 매우 낮은 확률입니다. 현재의 표준점수는 상당히 높은 수준으로, 경쟁이 치열한 신소재공학과에서 충분히 충원될 가능성은 낮습니다.
+결론적으로, 작년 신소재공학과의 최종 평균 점수가 현재 447점보다 약간 높은 경우는 가능하지만, 매우 낮은 확률입니다.</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.06833712984054671</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.1315192743764172</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2 정도로 변환될 경우, 신소재공학과의 경쟁률과 지원 인원 등을 고려해보면 다음과 같은 점들을 주목해야 합니다:
+1. **경쟁률**: 신소재공학과는 모집인원이 많지 않지만 지원 인원도 상당히 많습니다 (예: 56명 모집 시 81명 지원). 이로 인해 경쟁률은 높을 가능성이 있습니다.
+2. **성적 평균**: 최종 등록자들의 성적 평균이 4.78~5.78 정도로 높습니다 (예: 화학공학과, 응용화학과 모집단위). 이는 신소재공학과에서도 유사한 수준일 가능성이 있습니다.
+3. **성적 표준 편차**: 성적의 변동 범위가 크지 않아 4.1~4.2 등급으로 지원하면 상대적으로 낮은 점수로 보이게 됩니다.
+따라서, 현재의 성적이 4.1~4.2 정도일 경우 신소재공학과에 합격하기 위해서는 다음과 같은 조건들을 충족시켜야 합니다:
+- **면접 및 서류 평가**: 면접이나 서류 평가에서 우수한 점수를 받을 수 있어야 합니다. 특히, 진로 선택 과목의 성적과 관련된 활동이 잘 반영되어야 합니다.
+- **추천서 및 자기소개서**: 추천서나 자기소개서 등에서 지원 동기와 전공 적합성을 잘 설명할 수 있어야 합니다.
+결론적으로, 4.1~4.2의 성적만으로는 경쟁률이 높은 신소재공학과에 합격하기 어렵다고 볼 수 있습니다. 그러나 성적이 조금 더 높아지거나 면접 및 서류 평가에서 우수한 점수를 받을 경우 가능성이 있을 수 있습니다.
+추천 드리는 조언:
+- **성적 향상**: 가능한 한 성적을 높이는 노력을 해보세요. 추가 학습이나 모의고사를 통해 성적이 개선될 수 있는지 확인해 보세요.
+- **면접 및 서류 준비**: 면접 질문 공통문항과 관련된 답변을 미리 준비하고, 자기소개서와 추천서를 잘 작성하여 지원 동기와 전공 적합성을 잘 표현할 수 있도록 하세요.
+더 자세한 정보나 도움이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 참조해 보시거나, 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>0.3054187192118227</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.08896210873146622</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.174055829228243</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능(일반학생전형)에 대한 최종등록자와 최초합격자의 성적을 요약하면 다음과 같습니다:
+**최종등록자 (Final Registrants):**
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균:** 301.87
+- **영어 등급의 평균:** 4.13
+- **수능 4개 영역 등급의 평균:** 4.98
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균:** 415.80
+**최초합격자 (First Qualifiers):**
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균:** 317.77
+- **영어 등급의 평균:** 4.33
+- **수능 4개 영역 등급의 평균:** 4.87
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균:** 430.10
+이러한 성적을 참고하시면 인공지능학과에 지원하는 데 도움이 될 것입니다. 하지만 최종적인 입시 결과는 여러 요인에 따라 달라질 수 있으므로, 공식 입시 정보를 확인하시기 바랍니다.
+더 궁금하신 점이나 추가 정보가 필요하시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>0.5473684210526316</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.3544973544973545</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 등급은 상당히 높은 점수입니다. 동의대학교의 모집단위별로 다양한 학과와 전형이 있으므로, 정확한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위**: 어떤 단과대학과 모집단위를 지원하고 있는지 알려주십시오.
+2. **전형**: 일반학생전형, 조기취업형계약학과전형 등 어떤 전형을 지원하고 있는지 알려주십시오.
+3. **수능 반영 영역 및 가산점**: 해당 학과와 전형의 수능 반영 영역과 가산점을 확인해야 합니다.
+4. **모집인원 및 지원자 수**: 해당 모집단위의 정원과 지원자의 수를 알고 싶습니다.
+이 정보들을 바탕으로, 5.27이라는 영어 등급이 충분히 좋은 성적일 수 있습니다. 그러나 최종 합격 가능성은 여러 요소가综上所述，根据提供的信息和步骤推理，最终答案是无法直接确定是否可以录取，需要具体分析上述提到的各项因素。但可以肯定的是5.27的英语成绩在大多数情况下是非常有竞争力的。
+If you need more specific advice, please provide the additional details mentioned above.</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>0.1196877710320902</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.03475238922675934</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.07285342584562012</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 경쟁률이 높은 모집단위에서는 다소 어려울 수 있습니다. 그러나 동의대학교의 경우, 다양한 전형 방식을 통해 지원자를 평가하기 때문에 교과 성적만으로도 합격 가능성은 있습니다.
+특히 소프트웨어공학부는 경쟁률이 높지만, 교과성적이 좋은 경우에도 충원 가능성이 있습니다. 교과성적이 4.2라면, 지원자의 전반적인 학업 역량을 인정받을 수 있을 것입니다.
+다음은 몇 가지 고려사항입니다:
+1. **교과 성적**: 4.2는 꽤 좋은 점수로, 이는 지원자가 교과 과목에서 높은 평균 점수를 유지하고 있다는 것을 의미합니다.
+2. **면접 및 서류평가**: 동의대학교에서는 면접과 서류 평가도 중요한 요소입니다. 지원자의 자기소개서, 학업 계획 등이 중요하게 평가될 수 있습니다.
+3. **추천서나 특기사항**: 추천서나 특기사항을 잘 작성하면 추가적인 점수를 얻을 수 있습니다.
+4. **전공적합성**: 지원자가 해당 전공에 대한 열정과 적합성을 잘 표현한다면 이는 긍정적으로 평가될 것입니다.
+5. **추천사진 및 자료 제출**: 관련 자격증이나 프로젝트 경험 등을 첨부하면 도움이 될 수 있습니다.
+따라서, 교과성적이 4.2라면 소프트웨어공학부에 지원하는 것은 가능합니다만, 경쟁률이 높아 확실한 합격을 보장받기는 어렵습니다. 꼭 면접 준비와 서류 작성에도 신경 써야 합니다.
+추가적으로, 동의대학교의 공식 웹사이트나 입학처에 문의하여 최신 정보를 확인하는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 내용을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>0.2193877551020408</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.06153846153846153</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.1326530612244898</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 수능 표준점수를 의미하는 것 같습니다. 하지만 화학환경공학부의 모집인원과 지원자 수, 그리고 성적 분포 등을 고려해야 합니다.
+1. **모집인원 및 경쟁률**: 
+   - 2024년도 화학공학과 - 교직 - 공학 모집 인원은 62명입니다.
+   - 지원 인원이 많을 경우 경쟁률이 높아질 수 있습니다.
+2. **성적 분포**:
+   - 평균 점수와 표준 편차를 확인해야 합니다. 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 표준 편차를 보면, 이 값이 3.92와 얼마나 가까운지 확인할 수 있습니다.
+3. **성적 산출방법**:
+   - 화학공학과는 국어 + 수학 + 영어 등급점수 + 탐구 표준점수로 성적이 산출됩니다.
+   - 3.92라는 점수가 이 기준에 충족하는지 확인해야 합니다.
+4. **경쟁률 및 지원자 수**:
+   - 화학공학과의 경우, 2024년도 모집 인원이 62명이고 지원 인원은 137명으로 보입니다 (수능(일반학생전형) 최종등록자에서 확인 가능).
+   - 이는 경쟁률이 약 2.25:1 정도로 높을 수 있습니다.
+따라서, 3.92라는 점수가 평균 이상의 성적이라면,理论上，一个3.92的分数在该专业中是有竞争力的。但是具体能否被录取还需要考虑以下几个因素：
+- **个人排名**：你需要知道你的成绩在全国或学校内部的具体排名。
+- **其他申请者的成绩分布**：了解其他申请者的成绩分布情况，看看是否有更高分的学生。
+- **招生计划和名额分配**：确认具体的招生计划和名额分配情况。
+建议你参考以下步骤来进一步评估：
+1. **查询具体分数段的录取情况**：查看过去几年该专业的录取分数线或成绩分布情况。
+2. **咨询学校招生办公室**：直接联系东义大学的招生办公室，获取更详细的信息和支持。
+3. **模拟申请**：如果可能的话，可以进行一次模拟申请，以更好地了解自己的竞争力。
+希望这些信息对你有所帮助！如果你有更多具体问题，欢迎继续提问。</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.05913978494623656</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.1229946524064171</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학공학과 또는 환경공학과에 지원하시려면, 원서접수를 마친 상태에서 수능(일반학생전형)을 통해 지원하실 수 있습니다. 
+현재 제공된 데이터를 바탕으로, 화학공학과와 환경공학과의 모집 상황은 다음과 같습니다:
+- 화학공학과: 
+  - 모집 인원: 56명
+  - 지원 인원: 81명
+  - 경쟁률: 1.45
+  - 충원 합격 (후보순위): 25명
+- 환경공학과:
+  - 모집 인원: 101명
+  - 지원 인원: 122명
+  - 경쟁률: 1.21
+  - 충원 합격 (후보순위): 21명
+성적 4.25는 수능 영어영역 등급을 나타내는 것으로 보입니다. 동의대학교에서 제공하는 수능 영어등급별 점수표를 참조하면, 등급 4에 해당하는 점수는 115점입니다.
+이제 지원 가능성을 판단해보겠습니다:
+1. **경쟁률**: 화학공학과와 환경공학과 모두 경쟁률이 낮지 않으나, 지원 인원이 많아서 경쟁이 치열할 수 있습니다.
+2. **성적 평균**: 
+   - 화학공학과: 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 271.64
+   - 환경공학과: 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 269.13
+성적 4.25는 이들 평균보다 높으므로, 좋은 성적이지만 경쟁률과 지원 인원을 고려하면 여전히 난관이 있을 수 있습니다.
+**추천 사항:**
+- **수능 점수 확인**: 실제 수능 점수가 4.25에 해당하는지 다시 한번 확인해보세요.
+- **추가 지원 전략**: 다른 대학이나 학과도 함께 준비하시고, 다양한 경로를 통해 입학을 시도하시는 것이 좋습니다.
+마지막으로, 동의대학교의 정시 모집 정보와 최종 결정은 2024년 1월 중순부터 발표될 예정입니다. 따라서, 해당 기간에 합격자 발표 및 등록금 납부 일정을 체크하시고, 결과를 확인해보세요.
+더 궁금하신 점이 있으시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.1460446247464503</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.2141414141414141</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>4.2의 수능 점수로 영화학과를 지원하는 것은 가능하지만, 확실한 합격 여부는 여러 요인에 따라 달라집니다.
+1. **모집인원 및 지원자 수**: 영화학과의 모집인원과 지원자의 수가 중요합니다. 예를 들어, 5명을 모집하고 10명이 지원한다면 경쟁률은 높아질 것입니다.
+2. **전형방법**: 이 대학에서 사용하는 전형 방법에 따라 달라집니다. 일반적으로 수능 성적이 큰 비중을 차지하지만, 면접이나 서류평가 등 다른 요소도 고려될 수 있습니다.
+3. **경쟁률 및 평균 점수**: 2024학년도의 영화학과 최종등록자들의 평균 점수가 4.0대를 넘는 경우, 4.2점은 상당히 좋은 성적입니다.
+참고로, 2024학년도 영화학과 최종등록자의 수능 4개 영역 등급의 평균이 5.04였습니다 (수능(일반학생전형) 최종등록자에서 단과대학은 예술디자인체육대학이며, 모집단위은 영화학과입니다). 따라서 4.2는 이보다 낮지만, 경쟁률이 높지 않다면 합격 가능성은 있습니다.
+**추천 사항:**
+1. **면접 준비**: 면접 평가 비중이 있는 경우, 면접을 잘 준비해야 합니다.
+2. **서류 제출**: 서류평가도 중요한 요소로 작용할 수 있으므로, 서류를 철저히 준비하고 제출합니다.
+**결론:**
+4.2의 점수는 좋은 성적입니다만, 정확한 합격 여부는 모집인원과 지원자 수, 그리고 전형 방법 등에 따라 달라질 수 있습니다. 최선을 다해 준비하시면 좋은 결과를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>0.2405345211581292</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.08501118568232661</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.1247216035634744</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 면접평가 방법에서 구분되어 있으며, 각 단계별로 명확하게 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.8834355828220859</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0.4233367130303648</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.2865977441395636</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.3679100880372166</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Meta Llama-3.1-Instruct Average</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0.1517385964667472</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.07802642637775319</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.1400572232764468</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0.3305362191302689</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.1713965764558166</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.2688855970733766</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>0.3395363144184642</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.1928702269831984</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.2696776761537261</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B406" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C406" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D305" t="n">
-        <v>0.3018705095424603</v>
-      </c>
-      <c r="E305" t="n">
-        <v>0.1786735823243778</v>
-      </c>
-      <c r="F305" t="n">
-        <v>0.2589509694623466</v>
+      <c r="D406" t="n">
+        <v>0.3112869607614613</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.1822227434890829</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.2616326461351915</v>
       </c>
     </row>
   </sheetData>
